--- a/Financials/Quarterly/GSH_QTR_FIN.xlsx
+++ b/Financials/Quarterly/GSH_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0E1840-1DAA-484A-9CF7-E3D6884D15D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GSH" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>GSH</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,155 +689,168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42916</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42551</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42185</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1385600</v>
+        <v>1528700</v>
       </c>
       <c r="E8" s="3">
-        <v>1442600</v>
+        <v>1414000</v>
       </c>
       <c r="F8" s="3">
-        <v>1223400</v>
+        <v>1472100</v>
       </c>
       <c r="G8" s="3">
-        <v>1338200</v>
+        <v>1248400</v>
       </c>
       <c r="H8" s="3">
-        <v>1174900</v>
+        <v>1365700</v>
       </c>
       <c r="I8" s="3">
-        <v>1214400</v>
+        <v>1198900</v>
       </c>
       <c r="J8" s="3">
+        <v>1239200</v>
+      </c>
+      <c r="K8" s="3">
         <v>1072600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1110000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1258700</v>
+        <v>1484600</v>
       </c>
       <c r="E9" s="3">
-        <v>1336200</v>
+        <v>1284500</v>
       </c>
       <c r="F9" s="3">
-        <v>1126300</v>
+        <v>1363600</v>
       </c>
       <c r="G9" s="3">
-        <v>1232200</v>
+        <v>1149400</v>
       </c>
       <c r="H9" s="3">
-        <v>1042000</v>
+        <v>1257500</v>
       </c>
       <c r="I9" s="3">
-        <v>1100400</v>
+        <v>1063300</v>
       </c>
       <c r="J9" s="3">
+        <v>1122900</v>
+      </c>
+      <c r="K9" s="3">
         <v>958400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1037600</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>126900</v>
+        <v>44100</v>
       </c>
       <c r="E10" s="3">
-        <v>106400</v>
+        <v>129500</v>
       </c>
       <c r="F10" s="3">
-        <v>97100</v>
+        <v>108600</v>
       </c>
       <c r="G10" s="3">
-        <v>106000</v>
+        <v>99000</v>
       </c>
       <c r="H10" s="3">
-        <v>132900</v>
+        <v>108200</v>
       </c>
       <c r="I10" s="3">
-        <v>114000</v>
+        <v>135600</v>
       </c>
       <c r="J10" s="3">
+        <v>116300</v>
+      </c>
+      <c r="K10" s="3">
         <v>114200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>72400</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,8 +862,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -843,8 +892,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,16 +924,19 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>400</v>
+      </c>
+      <c r="E14" s="3">
         <v>-500</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -892,17 +947,20 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>-16700</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="K14" s="3">
         <v>16700</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -930,8 +988,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,66 +1001,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1259600</v>
+        <v>1499600</v>
       </c>
       <c r="E17" s="3">
-        <v>1343800</v>
+        <v>1285400</v>
       </c>
       <c r="F17" s="3">
-        <v>1125700</v>
+        <v>1371400</v>
       </c>
       <c r="G17" s="3">
-        <v>1245800</v>
+        <v>1148800</v>
       </c>
       <c r="H17" s="3">
-        <v>1044200</v>
+        <v>1271400</v>
       </c>
       <c r="I17" s="3">
-        <v>1097700</v>
+        <v>1065500</v>
       </c>
       <c r="J17" s="3">
+        <v>1120200</v>
+      </c>
+      <c r="K17" s="3">
         <v>977800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1033100</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>126000</v>
+        <v>29000</v>
       </c>
       <c r="E18" s="3">
-        <v>98800</v>
+        <v>128600</v>
       </c>
       <c r="F18" s="3">
-        <v>97600</v>
+        <v>100800</v>
       </c>
       <c r="G18" s="3">
-        <v>92400</v>
+        <v>99600</v>
       </c>
       <c r="H18" s="3">
-        <v>130700</v>
+        <v>94300</v>
       </c>
       <c r="I18" s="3">
-        <v>116600</v>
+        <v>133400</v>
       </c>
       <c r="J18" s="3">
+        <v>119000</v>
+      </c>
+      <c r="K18" s="3">
         <v>94800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1011,66 +1079,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-12500</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>241300</v>
+        <v>34600</v>
       </c>
       <c r="E21" s="3">
-        <v>84000</v>
+        <v>246200</v>
       </c>
       <c r="F21" s="3">
-        <v>225800</v>
+        <v>85700</v>
       </c>
       <c r="G21" s="3">
-        <v>105600</v>
+        <v>230400</v>
       </c>
       <c r="H21" s="3">
-        <v>235900</v>
+        <v>107700</v>
       </c>
       <c r="I21" s="3">
-        <v>111800</v>
+        <v>240700</v>
       </c>
       <c r="J21" s="3">
+        <v>114100</v>
+      </c>
+      <c r="K21" s="3">
         <v>199800</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1098,66 +1173,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>127000</v>
+        <v>29000</v>
       </c>
       <c r="E23" s="3">
-        <v>98000</v>
+        <v>129600</v>
       </c>
       <c r="F23" s="3">
-        <v>97900</v>
+        <v>100100</v>
       </c>
       <c r="G23" s="3">
-        <v>92600</v>
+        <v>99900</v>
       </c>
       <c r="H23" s="3">
-        <v>131900</v>
+        <v>94500</v>
       </c>
       <c r="I23" s="3">
-        <v>116200</v>
+        <v>134600</v>
       </c>
       <c r="J23" s="3">
+        <v>118500</v>
+      </c>
+      <c r="K23" s="3">
         <v>95000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>64500</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>32200</v>
+        <v>10100</v>
       </c>
       <c r="E24" s="3">
-        <v>24500</v>
+        <v>32900</v>
       </c>
       <c r="F24" s="3">
-        <v>24300</v>
+        <v>25000</v>
       </c>
       <c r="G24" s="3">
-        <v>23700</v>
+        <v>24700</v>
       </c>
       <c r="H24" s="3">
-        <v>33100</v>
+        <v>24200</v>
       </c>
       <c r="I24" s="3">
-        <v>28800</v>
+        <v>33700</v>
       </c>
       <c r="J24" s="3">
+        <v>29400</v>
+      </c>
+      <c r="K24" s="3">
         <v>27700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,66 +1269,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>94800</v>
+        <v>18900</v>
       </c>
       <c r="E26" s="3">
-        <v>73500</v>
+        <v>96700</v>
       </c>
       <c r="F26" s="3">
-        <v>73600</v>
+        <v>75000</v>
       </c>
       <c r="G26" s="3">
-        <v>68900</v>
+        <v>75100</v>
       </c>
       <c r="H26" s="3">
-        <v>98800</v>
+        <v>70400</v>
       </c>
       <c r="I26" s="3">
-        <v>87300</v>
+        <v>100900</v>
       </c>
       <c r="J26" s="3">
+        <v>89100</v>
+      </c>
+      <c r="K26" s="3">
         <v>67300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>48400</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>95100</v>
+        <v>19300</v>
       </c>
       <c r="E27" s="3">
-        <v>73700</v>
+        <v>97100</v>
       </c>
       <c r="F27" s="3">
-        <v>74000</v>
+        <v>75200</v>
       </c>
       <c r="G27" s="3">
-        <v>69300</v>
+        <v>75500</v>
       </c>
       <c r="H27" s="3">
-        <v>99200</v>
+        <v>70700</v>
       </c>
       <c r="I27" s="3">
-        <v>88100</v>
+        <v>101200</v>
       </c>
       <c r="J27" s="3">
+        <v>89900</v>
+      </c>
+      <c r="K27" s="3">
         <v>67600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1272,8 +1365,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1301,8 +1397,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1429,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1359,66 +1461,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>95100</v>
+        <v>19300</v>
       </c>
       <c r="E33" s="3">
-        <v>73700</v>
+        <v>97100</v>
       </c>
       <c r="F33" s="3">
-        <v>74000</v>
+        <v>75200</v>
       </c>
       <c r="G33" s="3">
-        <v>69300</v>
+        <v>75500</v>
       </c>
       <c r="H33" s="3">
-        <v>99200</v>
+        <v>70700</v>
       </c>
       <c r="I33" s="3">
-        <v>88100</v>
+        <v>101200</v>
       </c>
       <c r="J33" s="3">
+        <v>89900</v>
+      </c>
+      <c r="K33" s="3">
         <v>67600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,71 +1557,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>95100</v>
+        <v>19300</v>
       </c>
       <c r="E35" s="3">
-        <v>73700</v>
+        <v>97100</v>
       </c>
       <c r="F35" s="3">
-        <v>74000</v>
+        <v>75200</v>
       </c>
       <c r="G35" s="3">
-        <v>69300</v>
+        <v>75500</v>
       </c>
       <c r="H35" s="3">
-        <v>99200</v>
+        <v>70700</v>
       </c>
       <c r="I35" s="3">
-        <v>88100</v>
+        <v>101200</v>
       </c>
       <c r="J35" s="3">
+        <v>89900</v>
+      </c>
+      <c r="K35" s="3">
         <v>67600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42916</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42551</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42185</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1522,8 +1642,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,42 +1656,46 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>281100</v>
+        <v>258000</v>
       </c>
       <c r="E41" s="3">
-        <v>168800</v>
+        <v>286900</v>
       </c>
       <c r="F41" s="3">
-        <v>203800</v>
+        <v>172200</v>
       </c>
       <c r="G41" s="3">
-        <v>197700</v>
+        <v>208000</v>
       </c>
       <c r="H41" s="3">
-        <v>266200</v>
+        <v>201800</v>
       </c>
       <c r="I41" s="3">
-        <v>323000</v>
+        <v>271600</v>
       </c>
       <c r="J41" s="3">
+        <v>329600</v>
+      </c>
+      <c r="K41" s="3">
         <v>290400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>242100</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>15400</v>
+        <v>16200</v>
       </c>
       <c r="E42" s="3">
         <v>15700</v>
@@ -1579,225 +1704,249 @@
         <v>16000</v>
       </c>
       <c r="G42" s="3">
+        <v>16300</v>
+      </c>
+      <c r="H42" s="3">
+        <v>16000</v>
+      </c>
+      <c r="I42" s="3">
+        <v>15800</v>
+      </c>
+      <c r="J42" s="3">
         <v>15700</v>
-      </c>
-      <c r="H42" s="3">
-        <v>15500</v>
-      </c>
-      <c r="I42" s="3">
-        <v>15400</v>
-      </c>
-      <c r="J42" s="3">
-        <v>15100</v>
       </c>
       <c r="K42" s="3">
         <v>15100</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>608800</v>
+        <v>573100</v>
       </c>
       <c r="E43" s="3">
-        <v>602400</v>
+        <v>621300</v>
       </c>
       <c r="F43" s="3">
-        <v>481700</v>
+        <v>614700</v>
       </c>
       <c r="G43" s="3">
-        <v>489300</v>
+        <v>491500</v>
       </c>
       <c r="H43" s="3">
-        <v>490200</v>
+        <v>499300</v>
       </c>
       <c r="I43" s="3">
-        <v>419700</v>
+        <v>500300</v>
       </c>
       <c r="J43" s="3">
+        <v>428300</v>
+      </c>
+      <c r="K43" s="3">
         <v>338900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>357300</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>50700</v>
+        <v>44000</v>
       </c>
       <c r="E44" s="3">
-        <v>48100</v>
+        <v>51700</v>
       </c>
       <c r="F44" s="3">
-        <v>48200</v>
+        <v>49100</v>
       </c>
       <c r="G44" s="3">
-        <v>48400</v>
+        <v>49200</v>
       </c>
       <c r="H44" s="3">
-        <v>44400</v>
+        <v>49400</v>
       </c>
       <c r="I44" s="3">
-        <v>44700</v>
+        <v>45300</v>
       </c>
       <c r="J44" s="3">
+        <v>45600</v>
+      </c>
+      <c r="K44" s="3">
         <v>53800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>58200</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>35900</v>
+        <v>52100</v>
       </c>
       <c r="E45" s="3">
-        <v>46000</v>
+        <v>36600</v>
       </c>
       <c r="F45" s="3">
-        <v>47500</v>
+        <v>47000</v>
       </c>
       <c r="G45" s="3">
-        <v>48100</v>
+        <v>48500</v>
       </c>
       <c r="H45" s="3">
-        <v>22900</v>
+        <v>49000</v>
       </c>
       <c r="I45" s="3">
-        <v>20700</v>
+        <v>23400</v>
       </c>
       <c r="J45" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K45" s="3">
         <v>26800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>992000</v>
+        <v>943400</v>
       </c>
       <c r="E46" s="3">
-        <v>881000</v>
+        <v>1012300</v>
       </c>
       <c r="F46" s="3">
-        <v>797200</v>
+        <v>899100</v>
       </c>
       <c r="G46" s="3">
-        <v>799200</v>
+        <v>813500</v>
       </c>
       <c r="H46" s="3">
-        <v>839200</v>
+        <v>815500</v>
       </c>
       <c r="I46" s="3">
-        <v>823500</v>
+        <v>856400</v>
       </c>
       <c r="J46" s="3">
+        <v>840400</v>
+      </c>
+      <c r="K46" s="3">
         <v>725000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>679500</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>73000</v>
+        <v>78900</v>
       </c>
       <c r="E47" s="3">
-        <v>73000</v>
+        <v>74500</v>
       </c>
       <c r="F47" s="3">
-        <v>37900</v>
+        <v>74500</v>
       </c>
       <c r="G47" s="3">
-        <v>36800</v>
+        <v>38700</v>
       </c>
       <c r="H47" s="3">
-        <v>37900</v>
+        <v>37500</v>
       </c>
       <c r="I47" s="3">
-        <v>36800</v>
+        <v>38700</v>
       </c>
       <c r="J47" s="3">
+        <v>37600</v>
+      </c>
+      <c r="K47" s="3">
         <v>36700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3613700</v>
+        <v>3868200</v>
       </c>
       <c r="E48" s="3">
-        <v>3650600</v>
+        <v>3687800</v>
       </c>
       <c r="F48" s="3">
-        <v>3570300</v>
+        <v>3725400</v>
       </c>
       <c r="G48" s="3">
-        <v>3654400</v>
+        <v>3643500</v>
       </c>
       <c r="H48" s="3">
-        <v>3410300</v>
+        <v>3729300</v>
       </c>
       <c r="I48" s="3">
-        <v>3590600</v>
+        <v>3480200</v>
       </c>
       <c r="J48" s="3">
+        <v>3664200</v>
+      </c>
+      <c r="K48" s="3">
         <v>3490400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3576700</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>40900</v>
+        <v>41700</v>
       </c>
       <c r="E49" s="3">
-        <v>40900</v>
+        <v>41700</v>
       </c>
       <c r="F49" s="3">
-        <v>40900</v>
+        <v>41700</v>
       </c>
       <c r="G49" s="3">
-        <v>40900</v>
+        <v>41700</v>
       </c>
       <c r="H49" s="3">
-        <v>40900</v>
+        <v>41700</v>
       </c>
       <c r="I49" s="3">
-        <v>40900</v>
+        <v>41700</v>
       </c>
       <c r="J49" s="3">
-        <v>40900</v>
+        <v>41700</v>
       </c>
       <c r="K49" s="3">
         <v>40900</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>40900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1825,8 +1974,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1854,37 +2006,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>298400</v>
+        <v>321800</v>
       </c>
       <c r="E52" s="3">
-        <v>298200</v>
+        <v>304500</v>
       </c>
       <c r="F52" s="3">
-        <v>248200</v>
+        <v>304300</v>
       </c>
       <c r="G52" s="3">
-        <v>249100</v>
+        <v>253300</v>
       </c>
       <c r="H52" s="3">
-        <v>254800</v>
+        <v>254200</v>
       </c>
       <c r="I52" s="3">
-        <v>153600</v>
+        <v>260000</v>
       </c>
       <c r="J52" s="3">
+        <v>156800</v>
+      </c>
+      <c r="K52" s="3">
         <v>153200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>110200</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,37 +2070,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5018000</v>
+        <v>5254000</v>
       </c>
       <c r="E54" s="3">
-        <v>4943800</v>
+        <v>5120800</v>
       </c>
       <c r="F54" s="3">
-        <v>4694500</v>
+        <v>5045100</v>
       </c>
       <c r="G54" s="3">
-        <v>4780300</v>
+        <v>4790700</v>
       </c>
       <c r="H54" s="3">
-        <v>4583100</v>
+        <v>4878300</v>
       </c>
       <c r="I54" s="3">
-        <v>4645500</v>
+        <v>4677000</v>
       </c>
       <c r="J54" s="3">
+        <v>4740700</v>
+      </c>
+      <c r="K54" s="3">
         <v>4446100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4440900</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1954,8 +2118,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1967,37 +2132,41 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>162700</v>
+        <v>213800</v>
       </c>
       <c r="E57" s="3">
-        <v>192700</v>
+        <v>166000</v>
       </c>
       <c r="F57" s="3">
-        <v>151100</v>
+        <v>196700</v>
       </c>
       <c r="G57" s="3">
-        <v>166300</v>
+        <v>154200</v>
       </c>
       <c r="H57" s="3">
-        <v>139800</v>
+        <v>169700</v>
       </c>
       <c r="I57" s="3">
-        <v>160700</v>
+        <v>142700</v>
       </c>
       <c r="J57" s="3">
+        <v>164000</v>
+      </c>
+      <c r="K57" s="3">
         <v>171900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>209200</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2025,66 +2194,75 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>657600</v>
+        <v>739300</v>
       </c>
       <c r="E59" s="3">
-        <v>558400</v>
+        <v>671000</v>
       </c>
       <c r="F59" s="3">
-        <v>450500</v>
+        <v>569900</v>
       </c>
       <c r="G59" s="3">
-        <v>512100</v>
+        <v>459700</v>
       </c>
       <c r="H59" s="3">
-        <v>409600</v>
+        <v>522500</v>
       </c>
       <c r="I59" s="3">
-        <v>468000</v>
+        <v>418000</v>
       </c>
       <c r="J59" s="3">
+        <v>477600</v>
+      </c>
+      <c r="K59" s="3">
         <v>347100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>323300</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>820300</v>
+        <v>953100</v>
       </c>
       <c r="E60" s="3">
-        <v>751100</v>
+        <v>837100</v>
       </c>
       <c r="F60" s="3">
-        <v>601600</v>
+        <v>766500</v>
       </c>
       <c r="G60" s="3">
-        <v>678400</v>
+        <v>613900</v>
       </c>
       <c r="H60" s="3">
-        <v>549400</v>
+        <v>692300</v>
       </c>
       <c r="I60" s="3">
-        <v>628800</v>
+        <v>560600</v>
       </c>
       <c r="J60" s="3">
+        <v>641700</v>
+      </c>
+      <c r="K60" s="3">
         <v>518900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>532500</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2112,37 +2290,43 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>25000</v>
+        <v>24300</v>
       </c>
       <c r="E62" s="3">
-        <v>25000</v>
+        <v>25500</v>
       </c>
       <c r="F62" s="3">
-        <v>25300</v>
+        <v>25600</v>
       </c>
       <c r="G62" s="3">
-        <v>25600</v>
+        <v>25800</v>
       </c>
       <c r="H62" s="3">
+        <v>26100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>26600</v>
+      </c>
+      <c r="J62" s="3">
         <v>26000</v>
       </c>
-      <c r="I62" s="3">
-        <v>25500</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>23300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +2354,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,8 +2386,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2228,37 +2418,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>840900</v>
+        <v>972100</v>
       </c>
       <c r="E66" s="3">
-        <v>772200</v>
+        <v>858100</v>
       </c>
       <c r="F66" s="3">
-        <v>623100</v>
+        <v>788000</v>
       </c>
       <c r="G66" s="3">
-        <v>700400</v>
+        <v>635800</v>
       </c>
       <c r="H66" s="3">
-        <v>572500</v>
+        <v>714800</v>
       </c>
       <c r="I66" s="3">
-        <v>651600</v>
+        <v>584200</v>
       </c>
       <c r="J66" s="3">
+        <v>665000</v>
+      </c>
+      <c r="K66" s="3">
         <v>540400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>551300</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2270,8 +2466,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2299,8 +2496,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,8 +2528,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2357,8 +2560,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2386,37 +2592,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1438900</v>
+        <v>1487700</v>
       </c>
       <c r="E72" s="3">
-        <v>1433400</v>
+        <v>1468400</v>
       </c>
       <c r="F72" s="3">
-        <v>1359700</v>
+        <v>1462800</v>
       </c>
       <c r="G72" s="3">
-        <v>1368200</v>
+        <v>1387600</v>
       </c>
       <c r="H72" s="3">
-        <v>1298900</v>
+        <v>1396200</v>
       </c>
       <c r="I72" s="3">
-        <v>1282100</v>
+        <v>1325500</v>
       </c>
       <c r="J72" s="3">
+        <v>1308400</v>
+      </c>
+      <c r="K72" s="3">
         <v>1194000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1177900</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2444,8 +2656,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2473,8 +2688,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2502,37 +2720,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4177100</v>
+        <v>4282000</v>
       </c>
       <c r="E76" s="3">
-        <v>4171600</v>
+        <v>4262700</v>
       </c>
       <c r="F76" s="3">
-        <v>4071500</v>
+        <v>4257100</v>
       </c>
       <c r="G76" s="3">
-        <v>4079900</v>
+        <v>4154900</v>
       </c>
       <c r="H76" s="3">
-        <v>4010600</v>
+        <v>4163500</v>
       </c>
       <c r="I76" s="3">
-        <v>3993900</v>
+        <v>4092800</v>
       </c>
       <c r="J76" s="3">
+        <v>4075700</v>
+      </c>
+      <c r="K76" s="3">
         <v>3905700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3889600</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2560,71 +2784,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42916</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42551</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42185</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>95100</v>
+        <v>19300</v>
       </c>
       <c r="E81" s="3">
-        <v>73700</v>
+        <v>97100</v>
       </c>
       <c r="F81" s="3">
-        <v>74000</v>
+        <v>75200</v>
       </c>
       <c r="G81" s="3">
-        <v>69300</v>
+        <v>75500</v>
       </c>
       <c r="H81" s="3">
-        <v>99200</v>
+        <v>70700</v>
       </c>
       <c r="I81" s="3">
-        <v>88100</v>
+        <v>101200</v>
       </c>
       <c r="J81" s="3">
+        <v>89900</v>
+      </c>
+      <c r="K81" s="3">
         <v>67600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2636,8 +2869,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2665,8 +2899,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2694,8 +2931,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2723,8 +2963,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2752,8 +2995,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2781,8 +3027,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2810,37 +3059,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>211600</v>
+        <v>268000</v>
       </c>
       <c r="E89" s="3">
-        <v>202400</v>
+        <v>216000</v>
       </c>
       <c r="F89" s="3">
-        <v>180800</v>
+        <v>206600</v>
       </c>
       <c r="G89" s="3">
-        <v>140500</v>
+        <v>184500</v>
       </c>
       <c r="H89" s="3">
-        <v>98200</v>
+        <v>143300</v>
       </c>
       <c r="I89" s="3">
-        <v>166700</v>
+        <v>100200</v>
       </c>
       <c r="J89" s="3">
+        <v>170100</v>
+      </c>
+      <c r="K89" s="3">
         <v>162000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>185700</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2852,37 +3107,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-176600</v>
+        <v>-217900</v>
       </c>
       <c r="E91" s="3">
-        <v>-156000</v>
+        <v>-180300</v>
       </c>
       <c r="F91" s="3">
-        <v>-174600</v>
+        <v>-159200</v>
       </c>
       <c r="G91" s="3">
-        <v>-131300</v>
+        <v>-178200</v>
       </c>
       <c r="H91" s="3">
-        <v>-155700</v>
+        <v>-134000</v>
       </c>
       <c r="I91" s="3">
-        <v>-83800</v>
+        <v>-158900</v>
       </c>
       <c r="J91" s="3">
+        <v>-85500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-104200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-67900</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2910,8 +3169,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2939,37 +3201,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-99300</v>
+        <v>-212300</v>
       </c>
       <c r="E94" s="3">
-        <v>-154600</v>
+        <v>-101300</v>
       </c>
       <c r="F94" s="3">
-        <v>-174700</v>
+        <v>-157800</v>
       </c>
       <c r="G94" s="3">
-        <v>-126500</v>
+        <v>-178300</v>
       </c>
       <c r="H94" s="3">
-        <v>-155000</v>
+        <v>-129100</v>
       </c>
       <c r="I94" s="3">
-        <v>-82500</v>
+        <v>-158200</v>
       </c>
       <c r="J94" s="3">
+        <v>-84200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-113700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>486800</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2981,37 +3249,41 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-84100</v>
       </c>
       <c r="E96" s="3">
-        <v>-82800</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-84500</v>
       </c>
       <c r="G96" s="3">
-        <v>-82400</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-84100</v>
       </c>
       <c r="I96" s="3">
-        <v>-51500</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-52500</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3039,8 +3311,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3068,8 +3343,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3097,37 +3375,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-84600</v>
       </c>
       <c r="E100" s="3">
-        <v>-82800</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>-84500</v>
       </c>
       <c r="G100" s="3">
-        <v>-82400</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>-84100</v>
       </c>
       <c r="I100" s="3">
-        <v>-51600</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>-52600</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-591500</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3155,33 +3439,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>112400</v>
+        <v>-28900</v>
       </c>
       <c r="E102" s="3">
-        <v>-35000</v>
+        <v>114700</v>
       </c>
       <c r="F102" s="3">
-        <v>6100</v>
+        <v>-35700</v>
       </c>
       <c r="G102" s="3">
-        <v>-68400</v>
+        <v>6200</v>
       </c>
       <c r="H102" s="3">
-        <v>-56800</v>
+        <v>-69800</v>
       </c>
       <c r="I102" s="3">
-        <v>32600</v>
+        <v>-58000</v>
       </c>
       <c r="J102" s="3">
+        <v>33300</v>
+      </c>
+      <c r="K102" s="3">
         <v>48200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>81000</v>
       </c>
     </row>

--- a/Financials/Quarterly/GSH_QTR_FIN.xlsx
+++ b/Financials/Quarterly/GSH_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0E1840-1DAA-484A-9CF7-E3D6884D15D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="GSH" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>GSH</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,168 +654,181 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42916</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42551</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42185</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1528700</v>
+        <v>1461600</v>
       </c>
       <c r="E8" s="3">
-        <v>1414000</v>
+        <v>1477900</v>
       </c>
       <c r="F8" s="3">
-        <v>1472100</v>
+        <v>1367000</v>
       </c>
       <c r="G8" s="3">
-        <v>1248400</v>
+        <v>1423200</v>
       </c>
       <c r="H8" s="3">
-        <v>1365700</v>
+        <v>1207000</v>
       </c>
       <c r="I8" s="3">
-        <v>1198900</v>
+        <v>1320300</v>
       </c>
       <c r="J8" s="3">
+        <v>1159100</v>
+      </c>
+      <c r="K8" s="3">
         <v>1239200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1072600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1110000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1484600</v>
+        <v>1313400</v>
       </c>
       <c r="E9" s="3">
-        <v>1284500</v>
+        <v>1435300</v>
       </c>
       <c r="F9" s="3">
-        <v>1363600</v>
+        <v>1241800</v>
       </c>
       <c r="G9" s="3">
-        <v>1149400</v>
+        <v>1318300</v>
       </c>
       <c r="H9" s="3">
-        <v>1257500</v>
+        <v>1111200</v>
       </c>
       <c r="I9" s="3">
-        <v>1063300</v>
+        <v>1215700</v>
       </c>
       <c r="J9" s="3">
+        <v>1028000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1122900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>958400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1037600</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>44100</v>
+        <v>148200</v>
       </c>
       <c r="E10" s="3">
-        <v>129500</v>
+        <v>42600</v>
       </c>
       <c r="F10" s="3">
-        <v>108600</v>
+        <v>125200</v>
       </c>
       <c r="G10" s="3">
-        <v>99000</v>
+        <v>104900</v>
       </c>
       <c r="H10" s="3">
-        <v>108200</v>
+        <v>95800</v>
       </c>
       <c r="I10" s="3">
-        <v>135600</v>
+        <v>104600</v>
       </c>
       <c r="J10" s="3">
+        <v>131100</v>
+      </c>
+      <c r="K10" s="3">
         <v>116300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>114200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>72400</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +841,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +874,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,19 +909,22 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-500</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -950,17 +935,20 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>-17100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>16700</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -991,8 +979,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1002,72 +993,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1499600</v>
+        <v>1309800</v>
       </c>
       <c r="E17" s="3">
-        <v>1285400</v>
+        <v>1449800</v>
       </c>
       <c r="F17" s="3">
-        <v>1371400</v>
+        <v>1242700</v>
       </c>
       <c r="G17" s="3">
-        <v>1148800</v>
+        <v>1325800</v>
       </c>
       <c r="H17" s="3">
-        <v>1271400</v>
+        <v>1110600</v>
       </c>
       <c r="I17" s="3">
-        <v>1065500</v>
+        <v>1229100</v>
       </c>
       <c r="J17" s="3">
+        <v>1030200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1120200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>977800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1033100</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>29000</v>
+        <v>151800</v>
       </c>
       <c r="E18" s="3">
-        <v>128600</v>
+        <v>28100</v>
       </c>
       <c r="F18" s="3">
-        <v>100800</v>
+        <v>124400</v>
       </c>
       <c r="G18" s="3">
-        <v>99600</v>
+        <v>97400</v>
       </c>
       <c r="H18" s="3">
-        <v>94300</v>
+        <v>96300</v>
       </c>
       <c r="I18" s="3">
-        <v>133400</v>
+        <v>91200</v>
       </c>
       <c r="J18" s="3">
+        <v>129000</v>
+      </c>
+      <c r="K18" s="3">
         <v>119000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>94800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>77000</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1080,72 +1078,79 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-5900</v>
       </c>
       <c r="E20" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>900</v>
+      </c>
+      <c r="G20" s="3">
         <v>-700</v>
-      </c>
-      <c r="G20" s="3">
-        <v>300</v>
       </c>
       <c r="H20" s="3">
         <v>200</v>
       </c>
       <c r="I20" s="3">
+        <v>200</v>
+      </c>
+      <c r="J20" s="3">
         <v>1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-12500</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>34600</v>
+        <v>267200</v>
       </c>
       <c r="E21" s="3">
-        <v>246200</v>
+        <v>33500</v>
       </c>
       <c r="F21" s="3">
-        <v>85700</v>
+        <v>238100</v>
       </c>
       <c r="G21" s="3">
-        <v>230400</v>
+        <v>82900</v>
       </c>
       <c r="H21" s="3">
-        <v>107700</v>
+        <v>222800</v>
       </c>
       <c r="I21" s="3">
-        <v>240700</v>
+        <v>104200</v>
       </c>
       <c r="J21" s="3">
+        <v>232700</v>
+      </c>
+      <c r="K21" s="3">
         <v>114100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>199800</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1176,72 +1181,81 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>29000</v>
+        <v>145900</v>
       </c>
       <c r="E23" s="3">
-        <v>129600</v>
+        <v>28100</v>
       </c>
       <c r="F23" s="3">
-        <v>100100</v>
+        <v>125300</v>
       </c>
       <c r="G23" s="3">
-        <v>99900</v>
+        <v>96700</v>
       </c>
       <c r="H23" s="3">
-        <v>94500</v>
+        <v>96600</v>
       </c>
       <c r="I23" s="3">
-        <v>134600</v>
+        <v>91400</v>
       </c>
       <c r="J23" s="3">
+        <v>130100</v>
+      </c>
+      <c r="K23" s="3">
         <v>118500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>95000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>64500</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>10100</v>
+        <v>36800</v>
       </c>
       <c r="E24" s="3">
-        <v>32900</v>
+        <v>9800</v>
       </c>
       <c r="F24" s="3">
-        <v>25000</v>
+        <v>31800</v>
       </c>
       <c r="G24" s="3">
-        <v>24700</v>
+        <v>24200</v>
       </c>
       <c r="H24" s="3">
-        <v>24200</v>
+        <v>23900</v>
       </c>
       <c r="I24" s="3">
-        <v>33700</v>
+        <v>23400</v>
       </c>
       <c r="J24" s="3">
+        <v>32600</v>
+      </c>
+      <c r="K24" s="3">
         <v>29400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>27700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1272,72 +1286,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>18900</v>
+        <v>109100</v>
       </c>
       <c r="E26" s="3">
-        <v>96700</v>
+        <v>18300</v>
       </c>
       <c r="F26" s="3">
-        <v>75000</v>
+        <v>93500</v>
       </c>
       <c r="G26" s="3">
-        <v>75100</v>
+        <v>72500</v>
       </c>
       <c r="H26" s="3">
-        <v>70400</v>
+        <v>72600</v>
       </c>
       <c r="I26" s="3">
-        <v>100900</v>
+        <v>68000</v>
       </c>
       <c r="J26" s="3">
+        <v>97500</v>
+      </c>
+      <c r="K26" s="3">
         <v>89100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>67300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>48400</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>19300</v>
+        <v>109400</v>
       </c>
       <c r="E27" s="3">
-        <v>97100</v>
+        <v>18600</v>
       </c>
       <c r="F27" s="3">
-        <v>75200</v>
+        <v>93800</v>
       </c>
       <c r="G27" s="3">
-        <v>75500</v>
+        <v>72700</v>
       </c>
       <c r="H27" s="3">
-        <v>70700</v>
+        <v>73000</v>
       </c>
       <c r="I27" s="3">
-        <v>101200</v>
+        <v>68400</v>
       </c>
       <c r="J27" s="3">
+        <v>97800</v>
+      </c>
+      <c r="K27" s="3">
         <v>89900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>67600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1368,8 +1391,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1400,8 +1426,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1432,8 +1461,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1464,72 +1496,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="E32" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G32" s="3">
         <v>700</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-300</v>
       </c>
       <c r="H32" s="3">
         <v>-200</v>
       </c>
       <c r="I32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>12500</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>19300</v>
+        <v>109400</v>
       </c>
       <c r="E33" s="3">
-        <v>97100</v>
+        <v>18600</v>
       </c>
       <c r="F33" s="3">
-        <v>75200</v>
+        <v>93800</v>
       </c>
       <c r="G33" s="3">
-        <v>75500</v>
+        <v>72700</v>
       </c>
       <c r="H33" s="3">
-        <v>70700</v>
+        <v>73000</v>
       </c>
       <c r="I33" s="3">
-        <v>101200</v>
+        <v>68400</v>
       </c>
       <c r="J33" s="3">
+        <v>97800</v>
+      </c>
+      <c r="K33" s="3">
         <v>89900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>67600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1560,77 +1601,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>19300</v>
+        <v>109400</v>
       </c>
       <c r="E35" s="3">
-        <v>97100</v>
+        <v>18600</v>
       </c>
       <c r="F35" s="3">
-        <v>75200</v>
+        <v>93800</v>
       </c>
       <c r="G35" s="3">
-        <v>75500</v>
+        <v>72700</v>
       </c>
       <c r="H35" s="3">
-        <v>70700</v>
+        <v>73000</v>
       </c>
       <c r="I35" s="3">
-        <v>101200</v>
+        <v>68400</v>
       </c>
       <c r="J35" s="3">
+        <v>97800</v>
+      </c>
+      <c r="K35" s="3">
         <v>89900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>67600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42916</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42551</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42185</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1643,8 +1693,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1657,104 +1708,114 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>258000</v>
+        <v>275600</v>
       </c>
       <c r="E41" s="3">
-        <v>286900</v>
+        <v>249500</v>
       </c>
       <c r="F41" s="3">
-        <v>172200</v>
+        <v>277400</v>
       </c>
       <c r="G41" s="3">
-        <v>208000</v>
+        <v>166500</v>
       </c>
       <c r="H41" s="3">
-        <v>201800</v>
+        <v>201100</v>
       </c>
       <c r="I41" s="3">
-        <v>271600</v>
+        <v>195100</v>
       </c>
       <c r="J41" s="3">
+        <v>262600</v>
+      </c>
+      <c r="K41" s="3">
         <v>329600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>290400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>242100</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>16200</v>
+        <v>1300</v>
       </c>
       <c r="E42" s="3">
+        <v>15600</v>
+      </c>
+      <c r="F42" s="3">
+        <v>15200</v>
+      </c>
+      <c r="G42" s="3">
+        <v>15500</v>
+      </c>
+      <c r="H42" s="3">
+        <v>15800</v>
+      </c>
+      <c r="I42" s="3">
+        <v>15500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K42" s="3">
         <v>15700</v>
-      </c>
-      <c r="F42" s="3">
-        <v>16000</v>
-      </c>
-      <c r="G42" s="3">
-        <v>16300</v>
-      </c>
-      <c r="H42" s="3">
-        <v>16000</v>
-      </c>
-      <c r="I42" s="3">
-        <v>15800</v>
-      </c>
-      <c r="J42" s="3">
-        <v>15700</v>
-      </c>
-      <c r="K42" s="3">
-        <v>15100</v>
       </c>
       <c r="L42" s="3">
         <v>15100</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M42" s="3">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>573100</v>
+        <v>588400</v>
       </c>
       <c r="E43" s="3">
-        <v>621300</v>
+        <v>554100</v>
       </c>
       <c r="F43" s="3">
-        <v>614700</v>
+        <v>600700</v>
       </c>
       <c r="G43" s="3">
-        <v>491500</v>
+        <v>594300</v>
       </c>
       <c r="H43" s="3">
-        <v>499300</v>
+        <v>475200</v>
       </c>
       <c r="I43" s="3">
-        <v>500300</v>
+        <v>482700</v>
       </c>
       <c r="J43" s="3">
+        <v>483700</v>
+      </c>
+      <c r="K43" s="3">
         <v>428300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>338900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>357300</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1762,95 +1823,104 @@
         <v>44000</v>
       </c>
       <c r="E44" s="3">
-        <v>51700</v>
+        <v>42500</v>
       </c>
       <c r="F44" s="3">
-        <v>49100</v>
+        <v>50000</v>
       </c>
       <c r="G44" s="3">
-        <v>49200</v>
+        <v>47500</v>
       </c>
       <c r="H44" s="3">
-        <v>49400</v>
+        <v>47600</v>
       </c>
       <c r="I44" s="3">
-        <v>45300</v>
+        <v>47700</v>
       </c>
       <c r="J44" s="3">
+        <v>43800</v>
+      </c>
+      <c r="K44" s="3">
         <v>45600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>53800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>58200</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>52100</v>
+        <v>32800</v>
       </c>
       <c r="E45" s="3">
-        <v>36600</v>
+        <v>50400</v>
       </c>
       <c r="F45" s="3">
-        <v>47000</v>
+        <v>35400</v>
       </c>
       <c r="G45" s="3">
-        <v>48500</v>
+        <v>45400</v>
       </c>
       <c r="H45" s="3">
-        <v>49000</v>
+        <v>46900</v>
       </c>
       <c r="I45" s="3">
-        <v>23400</v>
+        <v>47400</v>
       </c>
       <c r="J45" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K45" s="3">
         <v>21200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>26800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>943400</v>
+        <v>942100</v>
       </c>
       <c r="E46" s="3">
-        <v>1012300</v>
+        <v>912100</v>
       </c>
       <c r="F46" s="3">
-        <v>899100</v>
+        <v>978700</v>
       </c>
       <c r="G46" s="3">
-        <v>813500</v>
+        <v>869200</v>
       </c>
       <c r="H46" s="3">
-        <v>815500</v>
+        <v>786500</v>
       </c>
       <c r="I46" s="3">
-        <v>856400</v>
+        <v>788400</v>
       </c>
       <c r="J46" s="3">
+        <v>828000</v>
+      </c>
+      <c r="K46" s="3">
         <v>840400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>725000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>679500</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1858,95 +1928,104 @@
         <v>78900</v>
       </c>
       <c r="E47" s="3">
-        <v>74500</v>
+        <v>76200</v>
       </c>
       <c r="F47" s="3">
-        <v>74500</v>
+        <v>72000</v>
       </c>
       <c r="G47" s="3">
-        <v>38700</v>
+        <v>72100</v>
       </c>
       <c r="H47" s="3">
-        <v>37500</v>
+        <v>37400</v>
       </c>
       <c r="I47" s="3">
-        <v>38700</v>
+        <v>36300</v>
       </c>
       <c r="J47" s="3">
+        <v>37400</v>
+      </c>
+      <c r="K47" s="3">
         <v>37600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>36700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>33600</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3868200</v>
+        <v>4112700</v>
       </c>
       <c r="E48" s="3">
-        <v>3687800</v>
+        <v>3739700</v>
       </c>
       <c r="F48" s="3">
-        <v>3725400</v>
+        <v>3565300</v>
       </c>
       <c r="G48" s="3">
-        <v>3643500</v>
+        <v>3601700</v>
       </c>
       <c r="H48" s="3">
-        <v>3729300</v>
+        <v>3522500</v>
       </c>
       <c r="I48" s="3">
-        <v>3480200</v>
+        <v>3605400</v>
       </c>
       <c r="J48" s="3">
+        <v>3364600</v>
+      </c>
+      <c r="K48" s="3">
         <v>3664200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3490400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3576700</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>40400</v>
+      </c>
+      <c r="F49" s="3">
+        <v>40400</v>
+      </c>
+      <c r="G49" s="3">
+        <v>40400</v>
+      </c>
+      <c r="H49" s="3">
+        <v>40400</v>
+      </c>
+      <c r="I49" s="3">
+        <v>40400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>40400</v>
+      </c>
+      <c r="K49" s="3">
         <v>41700</v>
-      </c>
-      <c r="E49" s="3">
-        <v>41700</v>
-      </c>
-      <c r="F49" s="3">
-        <v>41700</v>
-      </c>
-      <c r="G49" s="3">
-        <v>41700</v>
-      </c>
-      <c r="H49" s="3">
-        <v>41700</v>
-      </c>
-      <c r="I49" s="3">
-        <v>41700</v>
-      </c>
-      <c r="J49" s="3">
-        <v>41700</v>
-      </c>
-      <c r="K49" s="3">
-        <v>40900</v>
       </c>
       <c r="L49" s="3">
         <v>40900</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M49" s="3">
+        <v>40900</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,8 +2056,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,40 +2091,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>321800</v>
+        <v>40200</v>
       </c>
       <c r="E52" s="3">
-        <v>304500</v>
+        <v>311100</v>
       </c>
       <c r="F52" s="3">
-        <v>304300</v>
+        <v>294400</v>
       </c>
       <c r="G52" s="3">
-        <v>253300</v>
+        <v>294200</v>
       </c>
       <c r="H52" s="3">
-        <v>254200</v>
+        <v>244900</v>
       </c>
       <c r="I52" s="3">
-        <v>260000</v>
+        <v>245700</v>
       </c>
       <c r="J52" s="3">
+        <v>251400</v>
+      </c>
+      <c r="K52" s="3">
         <v>156800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>153200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>110200</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2073,40 +2161,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>5254000</v>
+        <v>5214300</v>
       </c>
       <c r="E54" s="3">
-        <v>5120800</v>
+        <v>5079500</v>
       </c>
       <c r="F54" s="3">
-        <v>5045100</v>
+        <v>4950700</v>
       </c>
       <c r="G54" s="3">
-        <v>4790700</v>
+        <v>4877500</v>
       </c>
       <c r="H54" s="3">
-        <v>4878300</v>
+        <v>4631600</v>
       </c>
       <c r="I54" s="3">
-        <v>4677000</v>
+        <v>4716200</v>
       </c>
       <c r="J54" s="3">
+        <v>4521600</v>
+      </c>
+      <c r="K54" s="3">
         <v>4740700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4446100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4440900</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2119,8 +2213,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2133,63 +2228,67 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>213800</v>
+        <v>197900</v>
       </c>
       <c r="E57" s="3">
-        <v>166000</v>
+        <v>206700</v>
       </c>
       <c r="F57" s="3">
-        <v>196700</v>
+        <v>160500</v>
       </c>
       <c r="G57" s="3">
-        <v>154200</v>
+        <v>190100</v>
       </c>
       <c r="H57" s="3">
-        <v>169700</v>
+        <v>149100</v>
       </c>
       <c r="I57" s="3">
-        <v>142700</v>
+        <v>164100</v>
       </c>
       <c r="J57" s="3">
+        <v>137900</v>
+      </c>
+      <c r="K57" s="3">
         <v>164000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>171900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>209200</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>8400</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2197,77 +2296,86 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>739300</v>
+        <v>641900</v>
       </c>
       <c r="E59" s="3">
-        <v>671000</v>
+        <v>714700</v>
       </c>
       <c r="F59" s="3">
-        <v>569900</v>
+        <v>648800</v>
       </c>
       <c r="G59" s="3">
-        <v>459700</v>
+        <v>550900</v>
       </c>
       <c r="H59" s="3">
-        <v>522500</v>
+        <v>444400</v>
       </c>
       <c r="I59" s="3">
-        <v>418000</v>
+        <v>505200</v>
       </c>
       <c r="J59" s="3">
+        <v>404100</v>
+      </c>
+      <c r="K59" s="3">
         <v>477600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>347100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>323300</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>953100</v>
+        <v>848200</v>
       </c>
       <c r="E60" s="3">
-        <v>837100</v>
+        <v>921500</v>
       </c>
       <c r="F60" s="3">
-        <v>766500</v>
+        <v>809300</v>
       </c>
       <c r="G60" s="3">
-        <v>613900</v>
+        <v>741100</v>
       </c>
       <c r="H60" s="3">
-        <v>692300</v>
+        <v>593500</v>
       </c>
       <c r="I60" s="3">
-        <v>560600</v>
+        <v>669300</v>
       </c>
       <c r="J60" s="3">
+        <v>542000</v>
+      </c>
+      <c r="K60" s="3">
         <v>641700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>518900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>532500</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>160500</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2293,40 +2401,46 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24300</v>
+        <v>23000</v>
       </c>
       <c r="E62" s="3">
-        <v>25500</v>
+        <v>23500</v>
       </c>
       <c r="F62" s="3">
-        <v>25600</v>
+        <v>24700</v>
       </c>
       <c r="G62" s="3">
-        <v>25800</v>
+        <v>24700</v>
       </c>
       <c r="H62" s="3">
-        <v>26100</v>
+        <v>25000</v>
       </c>
       <c r="I62" s="3">
-        <v>26600</v>
+        <v>25200</v>
       </c>
       <c r="J62" s="3">
+        <v>25700</v>
+      </c>
+      <c r="K62" s="3">
         <v>26000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>23300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2357,8 +2471,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2389,8 +2506,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2421,40 +2541,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>972100</v>
+        <v>1026200</v>
       </c>
       <c r="E66" s="3">
-        <v>858100</v>
+        <v>939800</v>
       </c>
       <c r="F66" s="3">
-        <v>788000</v>
+        <v>829600</v>
       </c>
       <c r="G66" s="3">
-        <v>635800</v>
+        <v>761800</v>
       </c>
       <c r="H66" s="3">
-        <v>714800</v>
+        <v>614700</v>
       </c>
       <c r="I66" s="3">
-        <v>584200</v>
+        <v>691000</v>
       </c>
       <c r="J66" s="3">
+        <v>564800</v>
+      </c>
+      <c r="K66" s="3">
         <v>665000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>540400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>551300</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2467,8 +2593,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2499,8 +2626,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2531,8 +2661,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2563,8 +2696,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2595,40 +2731,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1487700</v>
+        <v>1486600</v>
       </c>
       <c r="E72" s="3">
-        <v>1468400</v>
+        <v>1438300</v>
       </c>
       <c r="F72" s="3">
-        <v>1462800</v>
+        <v>1419600</v>
       </c>
       <c r="G72" s="3">
-        <v>1387600</v>
+        <v>1414200</v>
       </c>
       <c r="H72" s="3">
-        <v>1396200</v>
+        <v>1341500</v>
       </c>
       <c r="I72" s="3">
-        <v>1325500</v>
+        <v>1349800</v>
       </c>
       <c r="J72" s="3">
+        <v>1281500</v>
+      </c>
+      <c r="K72" s="3">
         <v>1308400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1194000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1177900</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2659,8 +2801,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2691,8 +2836,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2723,40 +2871,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4282000</v>
+        <v>4188100</v>
       </c>
       <c r="E76" s="3">
-        <v>4262700</v>
+        <v>4139700</v>
       </c>
       <c r="F76" s="3">
-        <v>4257100</v>
+        <v>4121100</v>
       </c>
       <c r="G76" s="3">
-        <v>4154900</v>
+        <v>4115700</v>
       </c>
       <c r="H76" s="3">
-        <v>4163500</v>
+        <v>4016900</v>
       </c>
       <c r="I76" s="3">
-        <v>4092800</v>
+        <v>4025200</v>
       </c>
       <c r="J76" s="3">
+        <v>3956800</v>
+      </c>
+      <c r="K76" s="3">
         <v>4075700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3905700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3889600</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2787,77 +2941,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42916</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42551</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42185</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>19300</v>
+        <v>109400</v>
       </c>
       <c r="E81" s="3">
-        <v>97100</v>
+        <v>18600</v>
       </c>
       <c r="F81" s="3">
-        <v>75200</v>
+        <v>93800</v>
       </c>
       <c r="G81" s="3">
-        <v>75500</v>
+        <v>72700</v>
       </c>
       <c r="H81" s="3">
-        <v>70700</v>
+        <v>73000</v>
       </c>
       <c r="I81" s="3">
-        <v>101200</v>
+        <v>68400</v>
       </c>
       <c r="J81" s="3">
+        <v>97800</v>
+      </c>
+      <c r="K81" s="3">
         <v>89900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>67600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>48500</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2870,8 +3033,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2902,8 +3066,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2934,8 +3101,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2966,8 +3136,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2998,8 +3171,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3030,8 +3206,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3062,40 +3241,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>268000</v>
+        <v>195900</v>
       </c>
       <c r="E89" s="3">
-        <v>216000</v>
+        <v>259100</v>
       </c>
       <c r="F89" s="3">
-        <v>206600</v>
+        <v>208800</v>
       </c>
       <c r="G89" s="3">
-        <v>184500</v>
+        <v>199700</v>
       </c>
       <c r="H89" s="3">
-        <v>143300</v>
+        <v>178300</v>
       </c>
       <c r="I89" s="3">
-        <v>100200</v>
+        <v>138600</v>
       </c>
       <c r="J89" s="3">
+        <v>96900</v>
+      </c>
+      <c r="K89" s="3">
         <v>170100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>162000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>185700</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3108,40 +3293,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-217900</v>
+        <v>-200200</v>
       </c>
       <c r="E91" s="3">
-        <v>-180300</v>
+        <v>-210700</v>
       </c>
       <c r="F91" s="3">
-        <v>-159200</v>
+        <v>-174300</v>
       </c>
       <c r="G91" s="3">
-        <v>-178200</v>
+        <v>-153900</v>
       </c>
       <c r="H91" s="3">
-        <v>-134000</v>
+        <v>-172300</v>
       </c>
       <c r="I91" s="3">
-        <v>-158900</v>
+        <v>-129600</v>
       </c>
       <c r="J91" s="3">
+        <v>-153600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-85500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-104200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-67900</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3172,8 +3361,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3204,40 +3396,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-212300</v>
+        <v>-169800</v>
       </c>
       <c r="E94" s="3">
-        <v>-101300</v>
+        <v>-205200</v>
       </c>
       <c r="F94" s="3">
-        <v>-157800</v>
+        <v>-97900</v>
       </c>
       <c r="G94" s="3">
-        <v>-178300</v>
+        <v>-152600</v>
       </c>
       <c r="H94" s="3">
-        <v>-129100</v>
+        <v>-172400</v>
       </c>
       <c r="I94" s="3">
-        <v>-158200</v>
+        <v>-124800</v>
       </c>
       <c r="J94" s="3">
+        <v>-152900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-84200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-113700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>486800</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3250,40 +3448,44 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-84100</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-81300</v>
       </c>
       <c r="F96" s="3">
-        <v>-84500</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-81700</v>
       </c>
       <c r="H96" s="3">
-        <v>-84100</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-81300</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-52500</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3314,8 +3516,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3346,8 +3551,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3378,40 +3586,46 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-84600</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-81800</v>
       </c>
       <c r="F100" s="3">
-        <v>-84500</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>-81700</v>
       </c>
       <c r="H100" s="3">
-        <v>-84100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>-81300</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-52600</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-591500</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3442,36 +3656,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-28900</v>
+        <v>26200</v>
       </c>
       <c r="E102" s="3">
-        <v>114700</v>
+        <v>-27900</v>
       </c>
       <c r="F102" s="3">
-        <v>-35700</v>
+        <v>110900</v>
       </c>
       <c r="G102" s="3">
-        <v>6200</v>
+        <v>-34600</v>
       </c>
       <c r="H102" s="3">
-        <v>-69800</v>
+        <v>6000</v>
       </c>
       <c r="I102" s="3">
-        <v>-58000</v>
+        <v>-67500</v>
       </c>
       <c r="J102" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="K102" s="3">
         <v>33300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>48200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>81000</v>
       </c>
     </row>
